--- a/after prepare.xlsx
+++ b/after prepare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw1-i-Shizuka-moto-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C51881-DBC3-434A-A8AC-B2FCF5FEADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5095B8C1-1723-472D-93BF-6806A2194F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenditure" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Years</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Central Government</t>
-  </si>
-  <si>
-    <t>LEA</t>
-  </si>
-  <si>
-    <t>UGC</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -64,14 +52,33 @@
   </si>
   <si>
     <t>Constant 1990  prices</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Government</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -146,10 +147,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -468,9 +469,7 @@
   </sheetPr>
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -483,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3111,9 +3110,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3124,34 +3122,36 @@
   </sheetPr>
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="14.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3164,6 +3164,18 @@
       <c r="C2" s="2">
         <v>461445</v>
       </c>
+      <c r="D2" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G2" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -3175,6 +3187,18 @@
       <c r="C3" s="2">
         <v>537585</v>
       </c>
+      <c r="D3" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G3" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -3186,6 +3210,18 @@
       <c r="C4" s="2">
         <v>571239</v>
       </c>
+      <c r="D4" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G4" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -3197,6 +3233,18 @@
       <c r="C5" s="2">
         <v>626696</v>
       </c>
+      <c r="D5" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G5" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -3208,6 +3256,18 @@
       <c r="C6" s="2">
         <v>761027</v>
       </c>
+      <c r="D6" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G6" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -3219,6 +3279,18 @@
       <c r="C7" s="2">
         <v>801401</v>
       </c>
+      <c r="D7" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G7" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -3230,6 +3302,18 @@
       <c r="C8" s="2">
         <v>884234</v>
       </c>
+      <c r="D8" s="4">
+        <v>63392</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8495</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G8" s="4">
+        <v>51182</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -3241,8 +3325,17 @@
       <c r="C9" s="2">
         <v>919935</v>
       </c>
+      <c r="D9" s="4">
+        <v>63392</v>
+      </c>
       <c r="E9" s="2">
         <v>8495</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G9" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3255,8 +3348,17 @@
       <c r="C10" s="2">
         <v>964849</v>
       </c>
+      <c r="D10" s="4">
+        <v>63392</v>
+      </c>
       <c r="E10" s="2">
         <v>8829</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G10" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3269,8 +3371,17 @@
       <c r="C11" s="2">
         <v>1008925</v>
       </c>
+      <c r="D11" s="4">
+        <v>63392</v>
+      </c>
       <c r="E11" s="2">
         <v>9176</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G11" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3283,8 +3394,17 @@
       <c r="C12" s="2">
         <v>1011134</v>
       </c>
+      <c r="D12" s="4">
+        <v>63392</v>
+      </c>
       <c r="E12" s="2">
         <v>9536</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G12" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3297,8 +3417,17 @@
       <c r="C13" s="2">
         <v>1057745</v>
       </c>
+      <c r="D13" s="4">
+        <v>63392</v>
+      </c>
       <c r="E13" s="2">
         <v>9911</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G13" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3311,8 +3440,17 @@
       <c r="C14" s="2">
         <v>1082055</v>
       </c>
+      <c r="D14" s="4">
+        <v>63392</v>
+      </c>
       <c r="E14" s="2">
         <v>10300</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G14" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3325,8 +3463,17 @@
       <c r="C15" s="2">
         <v>1147463</v>
       </c>
+      <c r="D15" s="4">
+        <v>63392</v>
+      </c>
       <c r="E15" s="2">
         <v>10705</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G15" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3339,11 +3486,20 @@
       <c r="C16" s="2">
         <v>1596643</v>
       </c>
+      <c r="D16" s="4">
+        <v>63392</v>
+      </c>
       <c r="E16" s="2">
         <v>11125</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G16" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1869</v>
       </c>
@@ -3353,11 +3509,20 @@
       <c r="C17" s="2">
         <v>1691346</v>
       </c>
+      <c r="D17" s="4">
+        <v>63392</v>
+      </c>
       <c r="E17" s="2">
         <v>11563</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G17" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1870</v>
       </c>
@@ -3367,11 +3532,20 @@
       <c r="C18" s="2">
         <v>1812730</v>
       </c>
+      <c r="D18" s="4">
+        <v>63392</v>
+      </c>
       <c r="E18" s="2">
         <v>12017</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G18" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1871</v>
       </c>
@@ -3381,11 +3555,20 @@
       <c r="C19" s="2">
         <v>1911045</v>
       </c>
+      <c r="D19" s="4">
+        <v>63392</v>
+      </c>
       <c r="E19" s="2">
         <v>12489</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G19" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1872</v>
       </c>
@@ -3395,11 +3578,20 @@
       <c r="C20" s="2">
         <v>2007246</v>
       </c>
+      <c r="D20" s="4">
+        <v>63392</v>
+      </c>
       <c r="E20" s="2">
         <v>13183</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G20" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1873</v>
       </c>
@@ -3409,11 +3601,20 @@
       <c r="C21" s="2">
         <v>2157101</v>
       </c>
+      <c r="D21" s="4">
+        <v>63392</v>
+      </c>
       <c r="E21" s="2">
         <v>13915</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G21" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1874</v>
       </c>
@@ -3423,11 +3624,20 @@
       <c r="C22" s="2">
         <v>2380784</v>
       </c>
+      <c r="D22" s="4">
+        <v>63392</v>
+      </c>
       <c r="E22" s="2">
         <v>14688</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G22" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1875</v>
       </c>
@@ -3437,11 +3647,20 @@
       <c r="C23" s="2">
         <v>2565483</v>
       </c>
+      <c r="D23" s="4">
+        <v>63392</v>
+      </c>
       <c r="E23" s="2">
         <v>15504</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G23" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1876</v>
       </c>
@@ -3451,11 +3670,20 @@
       <c r="C24" s="2">
         <v>2756863</v>
       </c>
+      <c r="D24" s="4">
+        <v>63392</v>
+      </c>
       <c r="E24" s="2">
         <v>16365</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G24" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1877</v>
       </c>
@@ -3465,11 +3693,20 @@
       <c r="C25" s="2">
         <v>2929159</v>
       </c>
+      <c r="D25" s="4">
+        <v>63392</v>
+      </c>
       <c r="E25" s="2">
         <v>17274</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G25" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1878</v>
       </c>
@@ -3479,11 +3716,20 @@
       <c r="C26" s="2">
         <v>3219706</v>
       </c>
+      <c r="D26" s="4">
+        <v>63392</v>
+      </c>
       <c r="E26" s="2">
         <v>18233</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G26" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1879</v>
       </c>
@@ -3493,11 +3739,20 @@
       <c r="C27" s="2">
         <v>3415158</v>
       </c>
+      <c r="D27" s="4">
+        <v>63392</v>
+      </c>
       <c r="E27" s="2">
         <v>19246</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G27" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1880</v>
       </c>
@@ -3507,11 +3762,20 @@
       <c r="C28" s="2">
         <v>3624091</v>
       </c>
+      <c r="D28" s="4">
+        <v>63392</v>
+      </c>
       <c r="E28" s="2">
         <v>20315</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G28" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1881</v>
       </c>
@@ -3521,11 +3785,20 @@
       <c r="C29" s="2">
         <v>3727068</v>
       </c>
+      <c r="D29" s="4">
+        <v>63392</v>
+      </c>
       <c r="E29" s="2">
         <v>21443</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G29" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1882</v>
       </c>
@@ -3535,11 +3808,20 @@
       <c r="C30" s="2">
         <v>3905608</v>
       </c>
+      <c r="D30" s="4">
+        <v>63392</v>
+      </c>
       <c r="E30" s="2">
         <v>21870</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G30" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1883</v>
       </c>
@@ -3549,11 +3831,20 @@
       <c r="C31" s="2">
         <v>4028055</v>
       </c>
+      <c r="D31" s="4">
+        <v>63392</v>
+      </c>
       <c r="E31" s="2">
         <v>22305</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G31" s="4">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1884</v>
       </c>
@@ -3563,8 +3854,17 @@
       <c r="C32" s="2">
         <v>4214294</v>
       </c>
+      <c r="D32" s="4">
+        <v>63392</v>
+      </c>
       <c r="E32" s="2">
         <v>22749</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G32" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3577,8 +3877,17 @@
       <c r="C33" s="2">
         <v>4329434</v>
       </c>
+      <c r="D33" s="4">
+        <v>63392</v>
+      </c>
       <c r="E33" s="2">
         <v>23202</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3748</v>
+      </c>
+      <c r="G33" s="4">
+        <v>51182</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3591,8 +3900,14 @@
       <c r="C34" s="2">
         <v>4405799</v>
       </c>
+      <c r="D34" s="4">
+        <v>63392</v>
+      </c>
       <c r="E34" s="2">
         <v>23664</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3748</v>
       </c>
       <c r="G34" s="2">
         <v>51182</v>
@@ -3608,8 +3923,14 @@
       <c r="C35" s="2">
         <v>4534504</v>
       </c>
+      <c r="D35" s="4">
+        <v>63392</v>
+      </c>
       <c r="E35" s="2">
         <v>24135</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3748</v>
       </c>
       <c r="G35" s="2">
         <v>59152</v>
@@ -3625,8 +3946,14 @@
       <c r="C36" s="2">
         <v>4605089</v>
       </c>
+      <c r="D36" s="4">
+        <v>63392</v>
+      </c>
       <c r="E36" s="2">
         <v>24616</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3748</v>
       </c>
       <c r="G36" s="2">
         <v>62395</v>
@@ -3642,8 +3969,14 @@
       <c r="C37" s="2">
         <v>4693590</v>
       </c>
+      <c r="D37" s="4">
+        <v>63392</v>
+      </c>
       <c r="E37" s="2">
         <v>25106</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3748</v>
       </c>
       <c r="G37" s="2">
         <v>68916</v>
@@ -3659,8 +3992,14 @@
       <c r="C38" s="2">
         <v>4719761</v>
       </c>
+      <c r="D38" s="4">
+        <v>63392</v>
+      </c>
       <c r="E38" s="2">
         <v>25605</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3748</v>
       </c>
       <c r="G38" s="2">
         <v>76446</v>
@@ -3676,8 +4015,14 @@
       <c r="C39" s="2">
         <v>4794657</v>
       </c>
+      <c r="D39" s="4">
+        <v>63392</v>
+      </c>
       <c r="E39" s="2">
         <v>26115</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3748</v>
       </c>
       <c r="G39" s="2">
         <v>90428</v>
@@ -3693,8 +4038,14 @@
       <c r="C40" s="2">
         <v>4904706</v>
       </c>
+      <c r="D40" s="4">
+        <v>63392</v>
+      </c>
       <c r="E40" s="2">
         <v>26072</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3748</v>
       </c>
       <c r="G40" s="2">
         <v>112849</v>
@@ -3710,8 +4061,14 @@
       <c r="C41" s="2">
         <v>5170211</v>
       </c>
+      <c r="D41" s="4">
+        <v>63392</v>
+      </c>
       <c r="E41" s="2">
         <v>26030</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3748</v>
       </c>
       <c r="G41" s="2">
         <v>131157</v>
@@ -3727,8 +4084,14 @@
       <c r="C42" s="2">
         <v>5318823</v>
       </c>
+      <c r="D42" s="4">
+        <v>63392</v>
+      </c>
       <c r="E42" s="2">
         <v>25987</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3748</v>
       </c>
       <c r="G42" s="2">
         <v>299617</v>
@@ -3744,8 +4107,14 @@
       <c r="C43" s="2">
         <v>5419850</v>
       </c>
+      <c r="D43" s="4">
+        <v>63392</v>
+      </c>
       <c r="E43" s="2">
         <v>25945</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3748</v>
       </c>
       <c r="G43" s="2">
         <v>315772</v>
@@ -3761,6 +4130,9 @@
       <c r="C44" s="2">
         <v>5550802</v>
       </c>
+      <c r="D44" s="4">
+        <v>63392</v>
+      </c>
       <c r="E44" s="2">
         <v>25902</v>
       </c>
@@ -3781,6 +4153,9 @@
       <c r="C45" s="2">
         <v>5615073</v>
       </c>
+      <c r="D45" s="4">
+        <v>63392</v>
+      </c>
       <c r="E45" s="2">
         <v>25860</v>
       </c>
@@ -3801,6 +4176,9 @@
       <c r="C46" s="2">
         <v>5678740</v>
       </c>
+      <c r="D46" s="4">
+        <v>63392</v>
+      </c>
       <c r="E46" s="2">
         <v>25817</v>
       </c>
@@ -3821,6 +4199,9 @@
       <c r="C47" s="2">
         <v>5763292</v>
       </c>
+      <c r="D47" s="4">
+        <v>63392</v>
+      </c>
       <c r="E47" s="2">
         <v>25775</v>
       </c>
@@ -3841,6 +4222,9 @@
       <c r="C48" s="2">
         <v>5770443</v>
       </c>
+      <c r="D48" s="4">
+        <v>63392</v>
+      </c>
       <c r="E48" s="2">
         <v>25733</v>
       </c>
@@ -3861,6 +4245,9 @@
       <c r="C49" s="2">
         <v>5866526</v>
       </c>
+      <c r="D49" s="4">
+        <v>63392</v>
+      </c>
       <c r="E49" s="2">
         <v>25691</v>
       </c>
@@ -6586,8 +6973,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6598,7 +6986,9 @@
   </sheetPr>
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6607,19 +6997,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6635,6 +7025,9 @@
       <c r="D2" s="3">
         <v>3505.011</v>
       </c>
+      <c r="E2" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -6649,6 +7042,9 @@
       <c r="D3" s="3">
         <v>3396.5630000000001</v>
       </c>
+      <c r="E3" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -6663,6 +7059,9 @@
       <c r="D4" s="3">
         <v>3591.797</v>
       </c>
+      <c r="E4" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -6677,6 +7076,9 @@
       <c r="D5" s="3">
         <v>2896.7080000000001</v>
       </c>
+      <c r="E5" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -6691,6 +7093,9 @@
       <c r="D6" s="3">
         <v>4211.9889999999996</v>
       </c>
+      <c r="E6" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -6705,6 +7110,9 @@
       <c r="D7" s="3">
         <v>4806.1409999999996</v>
       </c>
+      <c r="E7" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -6719,6 +7127,9 @@
       <c r="D8" s="3">
         <v>5127.53</v>
       </c>
+      <c r="E8" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -6733,6 +7144,9 @@
       <c r="D9" s="3">
         <v>4833.442</v>
       </c>
+      <c r="E9" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -6747,6 +7161,9 @@
       <c r="D10" s="3">
         <v>4747.0600000000004</v>
       </c>
+      <c r="E10" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -6761,6 +7178,9 @@
       <c r="D11" s="3">
         <v>4854.665</v>
       </c>
+      <c r="E11" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -6775,6 +7195,9 @@
       <c r="D12" s="3">
         <v>5144.5159999999996</v>
       </c>
+      <c r="E12" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -6789,6 +7212,9 @@
       <c r="D13" s="3">
         <v>6824.3450000000003</v>
       </c>
+      <c r="E13" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -6803,6 +7229,9 @@
       <c r="D14" s="3">
         <v>7396.5940000000001</v>
       </c>
+      <c r="E14" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -6817,6 +7246,9 @@
       <c r="D15" s="3">
         <v>8087.107</v>
       </c>
+      <c r="E15" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -6831,8 +7263,11 @@
       <c r="D16" s="3">
         <v>10355.33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1895</v>
       </c>
@@ -6845,8 +7280,11 @@
       <c r="D17" s="3">
         <v>11217.041999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1896</v>
       </c>
@@ -6859,8 +7297,11 @@
       <c r="D18" s="3">
         <v>12325.142</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1897</v>
       </c>
@@ -6873,8 +7314,11 @@
       <c r="D19" s="3">
         <v>12360.441999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1898</v>
       </c>
@@ -6887,8 +7331,11 @@
       <c r="D20" s="3">
         <v>12762.880999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1899</v>
       </c>
@@ -6901,8 +7348,11 @@
       <c r="D21" s="3">
         <v>13539.148999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1900</v>
       </c>
@@ -6915,8 +7365,11 @@
       <c r="D22" s="3">
         <v>14420.575999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1901</v>
       </c>
@@ -6929,8 +7382,11 @@
       <c r="D23" s="3">
         <v>15573.779</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1902</v>
       </c>
@@ -6943,8 +7399,11 @@
       <c r="D24" s="3">
         <v>16310.857</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1903</v>
       </c>
@@ -6957,8 +7416,11 @@
       <c r="D25" s="3">
         <v>15868.802</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1904</v>
       </c>
@@ -6971,8 +7433,11 @@
       <c r="D26" s="3">
         <v>17811.851999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1905</v>
       </c>
@@ -6985,8 +7450,11 @@
       <c r="D27" s="3">
         <v>24671.212</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1906</v>
       </c>
@@ -6999,8 +7467,11 @@
       <c r="D28" s="3">
         <v>26245.021000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1907</v>
       </c>
@@ -7013,8 +7484,11 @@
       <c r="D29" s="3">
         <v>27641.423999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1908</v>
       </c>
@@ -7027,8 +7501,11 @@
       <c r="D30" s="3">
         <v>28352.955999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1909</v>
       </c>
@@ -7041,8 +7518,11 @@
       <c r="D31" s="3">
         <v>29735.536</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="3">
+        <v>521.39700000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1910</v>
       </c>
@@ -7054,6 +7534,9 @@
       </c>
       <c r="D32" s="3">
         <v>30664.514999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>521.39700000000005</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7069,6 +7552,9 @@
       <c r="D33" s="3">
         <v>36298.160000000003</v>
       </c>
+      <c r="E33" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -7083,6 +7569,9 @@
       <c r="D34" s="3">
         <v>34301.964999999997</v>
       </c>
+      <c r="E34" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -7097,6 +7586,9 @@
       <c r="D35" s="3">
         <v>35448.163999999997</v>
       </c>
+      <c r="E35" s="3">
+        <v>521.39700000000005</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -8901,7 +9393,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/after prepare.xlsx
+++ b/after prepare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw1-i-Shizuka-moto-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5095B8C1-1723-472D-93BF-6806A2194F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B5B6B7-728F-49AC-ACEC-32A54413B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenditure" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Current prices</t>
   </si>
   <si>
-    <t>Education Price Index</t>
-  </si>
-  <si>
     <t>Constant 1990  prices</t>
   </si>
   <si>
@@ -71,6 +68,10 @@
   </si>
   <si>
     <t>UGC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education Price Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +470,9 @@
   </sheetPr>
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6986,7 +6989,7 @@
   </sheetPr>
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -6997,19 +7000,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/after prepare.xlsx
+++ b/after prepare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw1-i-Shizuka-moto-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B5B6B7-728F-49AC-ACEC-32A54413B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D44031D-6170-405F-AEB5-098C0B2D7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenditure" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   </sheetPr>
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3123,10 +3123,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6974,6 +6974,15 @@
       <c r="G167" s="2">
         <v>3549800</v>
       </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/after prepare.xlsx
+++ b/after prepare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw1-i-Shizuka-moto-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw1-i-Shizuka-moto-1\multipageapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D44031D-6170-405F-AEB5-098C0B2D7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D56FA-9732-4A16-AF05-119E089971EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3125,7 +3125,7 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
       <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
